--- a/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
+++ b/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,25 +469,20 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>street_segment_count</t>
+          <t>street_length_avg</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>street_length_avg</t>
+          <t>circuity_avg</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>circuity_avg</t>
+          <t>intersection_density_km2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_density_km2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>network_connectivity_index</t>
         </is>
@@ -496,41 +491,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.7890625</v>
+        <v>60.08219178082192</v>
       </c>
       <c r="C2" t="n">
-        <v>110.9140625</v>
+        <v>130.2945205479452</v>
       </c>
       <c r="D2" t="n">
-        <v>3.688307561451929</v>
+        <v>4.189019187276679</v>
       </c>
       <c r="E2" t="n">
-        <v>136.934930504673</v>
+        <v>99.94133294978602</v>
       </c>
       <c r="F2" t="n">
-        <v>2.853543278895978</v>
+        <v>2.713559336714237</v>
       </c>
       <c r="G2" t="n">
-        <v>43.3984375</v>
+        <v>47.44520547945206</v>
       </c>
       <c r="H2" t="n">
-        <v>66.1953125</v>
+        <v>98.36255104953904</v>
       </c>
       <c r="I2" t="n">
-        <v>134.2805619394438</v>
+        <v>1.121342217018086</v>
       </c>
       <c r="J2" t="n">
-        <v>1.109119056522251</v>
+        <v>89.21881788994803</v>
       </c>
       <c r="K2" t="n">
-        <v>96.08601994922805</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7114198634848677</v>
+        <v>0.6750821038165211</v>
       </c>
     </row>
     <row r="3">
@@ -558,99 +550,90 @@
         <v>49.24725274725274</v>
       </c>
       <c r="H3" t="n">
-        <v>74.17582417582418</v>
+        <v>79.76552134480792</v>
       </c>
       <c r="I3" t="n">
-        <v>79.76552134480792</v>
+        <v>1.012702445761716</v>
       </c>
       <c r="J3" t="n">
-        <v>1.012702445761716</v>
+        <v>163.7612928806655</v>
       </c>
       <c r="K3" t="n">
-        <v>163.7612928806655</v>
-      </c>
-      <c r="L3" t="n">
         <v>0.789517774529254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.73913043478261</v>
+        <v>52.7890625</v>
       </c>
       <c r="C4" t="n">
-        <v>111.0652173913043</v>
+        <v>110.9140625</v>
       </c>
       <c r="D4" t="n">
-        <v>3.617476435793487</v>
+        <v>3.688307561451929</v>
       </c>
       <c r="E4" t="n">
-        <v>189.3734257230083</v>
+        <v>136.934930504673</v>
       </c>
       <c r="F4" t="n">
-        <v>2.097046021065204</v>
+        <v>2.853543278895978</v>
       </c>
       <c r="G4" t="n">
-        <v>30.54347826086957</v>
+        <v>43.3984375</v>
       </c>
       <c r="H4" t="n">
-        <v>56.06521739130435</v>
+        <v>134.2805619394438</v>
       </c>
       <c r="I4" t="n">
-        <v>189.298054122866</v>
+        <v>1.109119056522251</v>
       </c>
       <c r="J4" t="n">
-        <v>1.263122803994131</v>
+        <v>96.08601994922805</v>
       </c>
       <c r="K4" t="n">
-        <v>14.75495520488539</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5242615052663011</v>
+        <v>0.7114198634848677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.08219178082192</v>
+        <v>54.73913043478261</v>
       </c>
       <c r="C5" t="n">
-        <v>130.2945205479452</v>
+        <v>111.0652173913043</v>
       </c>
       <c r="D5" t="n">
-        <v>4.189019187276679</v>
+        <v>3.617476435793487</v>
       </c>
       <c r="E5" t="n">
-        <v>99.94133294978602</v>
+        <v>189.3734257230083</v>
       </c>
       <c r="F5" t="n">
-        <v>2.713559336714237</v>
+        <v>2.097046021065204</v>
       </c>
       <c r="G5" t="n">
-        <v>47.44520547945206</v>
+        <v>30.54347826086957</v>
       </c>
       <c r="H5" t="n">
-        <v>74.0958904109589</v>
+        <v>189.298054122866</v>
       </c>
       <c r="I5" t="n">
-        <v>98.36255104953904</v>
+        <v>1.263122803994131</v>
       </c>
       <c r="J5" t="n">
-        <v>1.121342217018086</v>
+        <v>14.75495520488539</v>
       </c>
       <c r="K5" t="n">
-        <v>89.21881788994803</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6750821038165211</v>
+        <v>0.5242615052663011</v>
       </c>
     </row>
   </sheetData>
@@ -707,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.44444444444444</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21.32352941176471</v>
       </c>
       <c r="E2" t="n">
-        <v>22.05882352941176</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -729,22 +712,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.00621118012423</v>
+        <v>50.42735042735043</v>
       </c>
       <c r="C3" t="n">
-        <v>3.703703703703703</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>51.75438596491229</v>
+        <v>4.411764705882353</v>
       </c>
       <c r="E3" t="n">
-        <v>4.411764705882353</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="F3" t="n">
-        <v>37.03703703703704</v>
+        <v>36.20689655172414</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>61.8421052631579</v>
       </c>
     </row>
     <row r="4">
@@ -754,22 +737,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.36024844720497</v>
+        <v>35.04273504273504</v>
       </c>
       <c r="C4" t="n">
-        <v>51.85185185185185</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>34.21052631578947</v>
+        <v>19.11764705882353</v>
       </c>
       <c r="E4" t="n">
-        <v>19.85294117647059</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="F4" t="n">
-        <v>16.66666666666666</v>
+        <v>18.96551724137931</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>21.05263157894737</v>
       </c>
     </row>
     <row r="5">
@@ -779,22 +762,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.63354037267081</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.14705882352941</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>14.03508771929824</v>
-      </c>
-      <c r="E5" t="n">
-        <v>53.67647058823529</v>
-      </c>
       <c r="F5" t="n">
-        <v>46.2962962962963</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>17.10526315789474</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,25 +832,20 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>street_segment_count</t>
+          <t>street_length_avg</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>street_length_avg</t>
+          <t>circuity_avg</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>circuity_avg</t>
+          <t>intersection_density_km2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_density_km2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>network_connectivity_index</t>
         </is>
@@ -880,37 +858,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.48926231062259</v>
+        <v>24.47862643139133</v>
       </c>
       <c r="C2" t="n">
-        <v>129.4519751578879</v>
+        <v>32.59253659725769</v>
       </c>
       <c r="D2" t="n">
-        <v>4.529990561593912</v>
+        <v>2.855971861555257</v>
       </c>
       <c r="E2" t="n">
-        <v>73.15750141173379</v>
+        <v>101.3673964843522</v>
       </c>
       <c r="F2" t="n">
-        <v>3.135313468738752</v>
+        <v>3.123986937305957</v>
       </c>
       <c r="G2" t="n">
-        <v>51.6073600294375</v>
+        <v>25.2088155861851</v>
       </c>
       <c r="H2" t="n">
-        <v>77.64085458799576</v>
+        <v>99.03002291397546</v>
       </c>
       <c r="I2" t="n">
-        <v>72.65015418797191</v>
+        <v>1.046989577671508</v>
       </c>
       <c r="J2" t="n">
-        <v>1.035374979415357</v>
+        <v>99.44195634099655</v>
       </c>
       <c r="K2" t="n">
-        <v>179.8044260834703</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7776566539245947</v>
+        <v>0.7744996522028674</v>
       </c>
     </row>
     <row r="3">
@@ -920,37 +895,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.83592447571041</v>
+        <v>288.9523434551959</v>
       </c>
       <c r="C3" t="n">
-        <v>123.590582228416</v>
+        <v>626.60046173261</v>
       </c>
       <c r="D3" t="n">
-        <v>3.734466238565723</v>
+        <v>4.214631629938832</v>
       </c>
       <c r="E3" t="n">
-        <v>380.6104340207988</v>
+        <v>228.9188321059907</v>
       </c>
       <c r="F3" t="n">
-        <v>2.383039490477707</v>
+        <v>2.379418881043731</v>
       </c>
       <c r="G3" t="n">
-        <v>35.06238968818542</v>
+        <v>209.9617734688965</v>
       </c>
       <c r="H3" t="n">
-        <v>61.19090625305402</v>
+        <v>227.1072800066989</v>
       </c>
       <c r="I3" t="n">
-        <v>376.3596594787184</v>
+        <v>1.207699873809808</v>
       </c>
       <c r="J3" t="n">
-        <v>1.39564151923916</v>
+        <v>46.55817123306822</v>
       </c>
       <c r="K3" t="n">
-        <v>-16.36685515479672</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.5968078241283874</v>
+        <v>0.5936978853908865</v>
       </c>
     </row>
     <row r="4">
@@ -960,37 +932,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.74477872295973</v>
+        <v>31.12199021612139</v>
       </c>
       <c r="C4" t="n">
-        <v>26.56263589563864</v>
+        <v>63.85492150799526</v>
       </c>
       <c r="D4" t="n">
-        <v>2.849584919504967</v>
+        <v>3.798266916010318</v>
       </c>
       <c r="E4" t="n">
-        <v>101.0245897172331</v>
+        <v>113.7115977843244</v>
       </c>
       <c r="F4" t="n">
-        <v>3.134473432241104</v>
+        <v>2.446539386906082</v>
       </c>
       <c r="G4" t="n">
-        <v>23.33128829071053</v>
+        <v>21.2462788612104</v>
       </c>
       <c r="H4" t="n">
-        <v>30.15835098885025</v>
+        <v>112.4683820422444</v>
       </c>
       <c r="I4" t="n">
-        <v>98.67077467097639</v>
+        <v>1.141866839717484</v>
       </c>
       <c r="J4" t="n">
-        <v>1.046840201058697</v>
+        <v>51.51568913616229</v>
       </c>
       <c r="K4" t="n">
-        <v>100.4884381624615</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.7770550944549571</v>
+        <v>0.6105990042462967</v>
       </c>
     </row>
     <row r="5">
@@ -1000,37 +969,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.32940815704964</v>
+        <v>57.45181493727232</v>
       </c>
       <c r="C5" t="n">
-        <v>61.93812914203681</v>
+        <v>116.3684619011903</v>
       </c>
       <c r="D5" t="n">
-        <v>3.784721669392263</v>
+        <v>3.731678654041102</v>
       </c>
       <c r="E5" t="n">
-        <v>116.0881098398269</v>
+        <v>372.5152010716874</v>
       </c>
       <c r="F5" t="n">
-        <v>2.44465877583742</v>
+        <v>2.374099905361757</v>
       </c>
       <c r="G5" t="n">
-        <v>20.48254696027191</v>
+        <v>32.64452902705379</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35444305099715</v>
+        <v>368.4140412913551</v>
       </c>
       <c r="I5" t="n">
-        <v>114.8166146898125</v>
+        <v>1.380123324711462</v>
       </c>
       <c r="J5" t="n">
-        <v>1.142795366376744</v>
+        <v>-16.66613620677553</v>
       </c>
       <c r="K5" t="n">
-        <v>50.07328308938033</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6101635637912166</v>
+        <v>0.594604126734493</v>
       </c>
     </row>
     <row r="6">
@@ -1040,37 +1006,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141.0453214632577</v>
+        <v>136.9696172064038</v>
       </c>
       <c r="C6" t="n">
-        <v>316.8343048842304</v>
+        <v>308.6766312033876</v>
       </c>
       <c r="D6" t="n">
-        <v>4.680179234202069</v>
+        <v>4.707605155261347</v>
       </c>
       <c r="E6" t="n">
-        <v>70.1602118213942</v>
+        <v>69.20918792403926</v>
       </c>
       <c r="F6" t="n">
-        <v>2.879444456396813</v>
+        <v>2.88837873008989</v>
       </c>
       <c r="G6" t="n">
-        <v>112.1712556469168</v>
+        <v>109.1639849313962</v>
       </c>
       <c r="H6" t="n">
-        <v>183.9827733742809</v>
+        <v>69.09241006691714</v>
       </c>
       <c r="I6" t="n">
-        <v>70.00746917524813</v>
+        <v>1.051429279183207</v>
       </c>
       <c r="J6" t="n">
-        <v>1.053420067376021</v>
+        <v>161.0852316823295</v>
       </c>
       <c r="K6" t="n">
-        <v>158.7632866079526</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.7150634956492302</v>
+        <v>0.7172787283436194</v>
       </c>
     </row>
     <row r="7">
@@ -1080,37 +1043,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>287.2507164353511</v>
+        <v>53.1088563975686</v>
       </c>
       <c r="C7" t="n">
-        <v>622.5507760244559</v>
+        <v>124.496508360371</v>
       </c>
       <c r="D7" t="n">
-        <v>4.218847879782129</v>
+        <v>4.54297993100286</v>
       </c>
       <c r="E7" t="n">
-        <v>228.9703891575597</v>
+        <v>72.41418554402756</v>
       </c>
       <c r="F7" t="n">
-        <v>2.378946558687224</v>
+        <v>3.156616348923331</v>
       </c>
       <c r="G7" t="n">
-        <v>209.188945700807</v>
+        <v>50.2187792684028</v>
       </c>
       <c r="H7" t="n">
-        <v>358.0341912624514</v>
+        <v>71.90281141980611</v>
       </c>
       <c r="I7" t="n">
-        <v>227.1562879930301</v>
+        <v>1.034365479574673</v>
       </c>
       <c r="J7" t="n">
-        <v>1.207636794028755</v>
+        <v>183.1723118079966</v>
       </c>
       <c r="K7" t="n">
-        <v>46.27677713744748</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.593550714799403</v>
+        <v>0.7828381923123574</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,7 +1114,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24938613.93112046</v>
+        <v>24965768.00814442</v>
       </c>
     </row>
     <row r="3">
@@ -1163,11 +1123,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>street_segment_count</t>
+          <t>edge_length_avg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4472942.065508005</v>
+        <v>3609674.288099007</v>
       </c>
     </row>
     <row r="4">
@@ -1176,11 +1136,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>edge_length_avg</t>
+          <t>street_length_avg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3851048.817896472</v>
+        <v>3487982.833448318</v>
       </c>
     </row>
     <row r="5">
@@ -1189,11 +1149,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>street_length_avg</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3719774.934943901</v>
+        <v>2270774.87682489</v>
       </c>
     </row>
     <row r="6">
@@ -1202,11 +1162,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>intersection_density_km2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2267360.118501555</v>
+        <v>950307.5549816652</v>
       </c>
     </row>
     <row r="7">
@@ -1215,11 +1175,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>intersection_density_km2</t>
+          <t>intersection_count</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>904015.393223841</v>
+        <v>854194.7105677602</v>
       </c>
     </row>
     <row r="8">
@@ -1228,11 +1188,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>intersection_count</t>
+          <t>k_avg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>854583.5211263952</v>
+        <v>0.6972629002666135</v>
       </c>
     </row>
     <row r="9">
@@ -1241,11 +1201,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>k_avg</t>
+          <t>streets_per_node_avg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6788213486483585</v>
+        <v>0.09027800081297768</v>
       </c>
     </row>
     <row r="10">
@@ -1254,11 +1214,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>streets_per_node_avg</t>
+          <t>circuity_avg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08511070917959612</v>
+        <v>0.005175773040573637</v>
       </c>
     </row>
     <row r="11">
@@ -1267,24 +1227,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>circuity_avg</t>
+          <t>network_connectivity_index</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.005810284186557694</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>network_connectivity_index</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001210245452449257</v>
+        <v>0.001274981771251849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
+++ b/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,50 +439,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>edge_length_density</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>street_density_km2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>node_density_km2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>edge_density_km2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>k_avg</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>edge_length_avg</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>streets_per_node_avg</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_count</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>intersection_density_km2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>segment_density_km2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>street_length_avg</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>circuity_avg</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_density_km2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>network_connectivity_index</t>
         </is>
@@ -495,33 +505,39 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.08219178082192</v>
+        <v>19107.82969719795</v>
       </c>
       <c r="C2" t="n">
-        <v>130.2945205479452</v>
+        <v>10655.26898236305</v>
       </c>
       <c r="D2" t="n">
+        <v>108.1646670925345</v>
+      </c>
+      <c r="E2" t="n">
+        <v>233.7390758969681</v>
+      </c>
+      <c r="F2" t="n">
         <v>4.189019187276679</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>99.94133294978602</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>2.713559336714237</v>
       </c>
-      <c r="G2" t="n">
-        <v>47.44520547945206</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>89.21881788994803</v>
+      </c>
+      <c r="J2" t="n">
+        <v>131.6000784161852</v>
+      </c>
+      <c r="K2" t="n">
         <v>98.36255104953904</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>1.121342217018086</v>
       </c>
-      <c r="J2" t="n">
-        <v>89.21881788994803</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.6750821038165211</v>
       </c>
     </row>
@@ -532,33 +548,39 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.86813186813187</v>
+        <v>26290.78357942621</v>
       </c>
       <c r="C3" t="n">
-        <v>113.3846153846154</v>
+        <v>17047.88349533022</v>
       </c>
       <c r="D3" t="n">
+        <v>175.620532661817</v>
+      </c>
+      <c r="E3" t="n">
+        <v>371.2872779466871</v>
+      </c>
+      <c r="F3" t="n">
         <v>3.926087741257137</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>80.26207496284256</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>3.188534318151369</v>
       </c>
-      <c r="G3" t="n">
-        <v>49.24725274725274</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>163.7612928806655</v>
+      </c>
+      <c r="J3" t="n">
+        <v>237.4213597517306</v>
+      </c>
+      <c r="K3" t="n">
         <v>79.76552134480792</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>1.012702445761716</v>
       </c>
-      <c r="J3" t="n">
-        <v>163.7612928806655</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.789517774529254</v>
       </c>
     </row>
@@ -569,33 +591,39 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.7890625</v>
+        <v>16973.97788981502</v>
       </c>
       <c r="C4" t="n">
-        <v>110.9140625</v>
+        <v>10841.03303646398</v>
       </c>
       <c r="D4" t="n">
+        <v>107.2647922337498</v>
+      </c>
+      <c r="E4" t="n">
+        <v>215.1989896673344</v>
+      </c>
+      <c r="F4" t="n">
         <v>3.688307561451929</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>136.934930504673</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>2.853543278895978</v>
       </c>
-      <c r="G4" t="n">
-        <v>43.3984375</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>96.08601994922805</v>
+      </c>
+      <c r="J4" t="n">
+        <v>135.8434907881797</v>
+      </c>
+      <c r="K4" t="n">
         <v>134.2805619394438</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>1.109119056522251</v>
       </c>
-      <c r="J4" t="n">
-        <v>96.08601994922805</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7114198634848677</v>
       </c>
     </row>
@@ -606,33 +634,39 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.73913043478261</v>
+        <v>5847.381738624514</v>
       </c>
       <c r="C5" t="n">
-        <v>111.0652173913043</v>
+        <v>3005.860134697415</v>
       </c>
       <c r="D5" t="n">
+        <v>28.45615846188232</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49.42564923502204</v>
+      </c>
+      <c r="F5" t="n">
         <v>3.617476435793487</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>189.3734257230083</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2.097046021065204</v>
       </c>
-      <c r="G5" t="n">
-        <v>30.54347826086957</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>14.75495520488539</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.77970135963307</v>
+      </c>
+      <c r="K5" t="n">
         <v>189.298054122866</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>1.263122803994131</v>
       </c>
-      <c r="J5" t="n">
-        <v>14.75495520488539</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5242615052663011</v>
       </c>
     </row>
@@ -647,7 +681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,15 +704,6 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -687,22 +712,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>6.374501992031872</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
       <c r="D2" t="n">
-        <v>21.32352941176471</v>
-      </c>
-      <c r="E2" t="n">
-        <v>44.82758620689656</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="3">
@@ -712,22 +728,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.42735042735043</v>
+        <v>25.49800796812749</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>64.64088397790056</v>
       </c>
       <c r="D3" t="n">
-        <v>4.411764705882353</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.448275862068965</v>
-      </c>
-      <c r="F3" t="n">
-        <v>36.20689655172414</v>
-      </c>
-      <c r="G3" t="n">
-        <v>61.8421052631579</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="4">
@@ -737,22 +744,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.04273504273504</v>
+        <v>28.28685258964144</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>19.33701657458564</v>
       </c>
       <c r="D4" t="n">
-        <v>19.11764705882353</v>
-      </c>
-      <c r="E4" t="n">
-        <v>51.72413793103448</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18.96551724137931</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21.05263157894737</v>
+        <v>31.42857142857143</v>
       </c>
     </row>
     <row r="5">
@@ -762,22 +760,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.52991452991453</v>
+        <v>39.8406374501992</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="D5" t="n">
-        <v>55.14705882352941</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>44.82758620689656</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17.10526315789474</v>
+        <v>24.28571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,50 +791,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>edge_length_density</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>street_density_km2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>node_density_km2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>edge_density_km2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>k_avg</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>edge_length_avg</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>streets_per_node_avg</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_count</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>intersection_density_km2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>segment_density_km2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>street_length_avg</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>circuity_avg</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_density_km2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>network_connectivity_index</t>
         </is>
@@ -858,34 +857,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.47862643139133</v>
+        <v>13827.58406566504</v>
       </c>
       <c r="C2" t="n">
-        <v>32.59253659725769</v>
+        <v>9112.582314327345</v>
       </c>
       <c r="D2" t="n">
-        <v>2.855971861555257</v>
+        <v>88.0384861490252</v>
       </c>
       <c r="E2" t="n">
-        <v>101.3673964843522</v>
+        <v>160.5098141406104</v>
       </c>
       <c r="F2" t="n">
-        <v>3.123986937305957</v>
+        <v>3.545912287252029</v>
       </c>
       <c r="G2" t="n">
-        <v>25.2088155861851</v>
+        <v>95.48597381306507</v>
       </c>
       <c r="H2" t="n">
-        <v>99.03002291397546</v>
+        <v>2.823904606892357</v>
       </c>
       <c r="I2" t="n">
-        <v>1.046989577671508</v>
+        <v>75.91299470974374</v>
       </c>
       <c r="J2" t="n">
-        <v>99.44195634099655</v>
+        <v>107.1162280436641</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7744996522028674</v>
+        <v>94.11139102391496</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.073147094175488</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7019456604835532</v>
       </c>
     </row>
     <row r="3">
@@ -895,34 +900,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>288.9523434551959</v>
+        <v>33922.90540510153</v>
       </c>
       <c r="C3" t="n">
-        <v>626.60046173261</v>
+        <v>20387.23791664614</v>
       </c>
       <c r="D3" t="n">
-        <v>4.214631629938832</v>
+        <v>218.8201439587225</v>
       </c>
       <c r="E3" t="n">
-        <v>228.9188321059907</v>
+        <v>494.5270560590718</v>
       </c>
       <c r="F3" t="n">
-        <v>2.379418881043731</v>
+        <v>4.522342605885286</v>
       </c>
       <c r="G3" t="n">
-        <v>209.9617734688965</v>
+        <v>70.72934946530074</v>
       </c>
       <c r="H3" t="n">
-        <v>227.1072800066989</v>
+        <v>3.136375422398369</v>
       </c>
       <c r="I3" t="n">
-        <v>1.207699873809808</v>
+        <v>200.3828390041708</v>
       </c>
       <c r="J3" t="n">
-        <v>46.55817123306822</v>
+        <v>295.1319136078761</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5936978853908865</v>
+        <v>70.1746197185204</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.032218565617536</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7777036303509249</v>
       </c>
     </row>
     <row r="4">
@@ -932,145 +943,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.12199021612139</v>
+        <v>5793.499975917461</v>
       </c>
       <c r="C4" t="n">
-        <v>63.85492150799526</v>
+        <v>2956.537694706582</v>
       </c>
       <c r="D4" t="n">
-        <v>3.798266916010318</v>
+        <v>15.56784221704557</v>
       </c>
       <c r="E4" t="n">
-        <v>113.7115977843244</v>
+        <v>24.5982816214144</v>
       </c>
       <c r="F4" t="n">
-        <v>2.446539386906082</v>
+        <v>3.65834369140065</v>
       </c>
       <c r="G4" t="n">
-        <v>21.2462788612104</v>
+        <v>266.6998465923409</v>
       </c>
       <c r="H4" t="n">
-        <v>112.4683820422444</v>
+        <v>2.310379399248939</v>
       </c>
       <c r="I4" t="n">
-        <v>1.141866839717484</v>
+        <v>6.925509674840924</v>
       </c>
       <c r="J4" t="n">
-        <v>51.51568913616229</v>
+        <v>9.901177214612176</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6105990042462967</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Cluster 3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>57.45181493727232</v>
-      </c>
-      <c r="C5" t="n">
-        <v>116.3684619011903</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.731678654041102</v>
-      </c>
-      <c r="E5" t="n">
-        <v>372.5152010716874</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.374099905361757</v>
-      </c>
-      <c r="G5" t="n">
-        <v>32.64452902705379</v>
-      </c>
-      <c r="H5" t="n">
-        <v>368.4140412913551</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.380123324711462</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-16.66613620677553</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.594604126734493</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Cluster 4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>136.9696172064038</v>
-      </c>
-      <c r="C6" t="n">
-        <v>308.6766312033876</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.707605155261347</v>
-      </c>
-      <c r="E6" t="n">
-        <v>69.20918792403926</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.88837873008989</v>
-      </c>
-      <c r="G6" t="n">
-        <v>109.1639849313962</v>
-      </c>
-      <c r="H6" t="n">
-        <v>69.09241006691714</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.051429279183207</v>
-      </c>
-      <c r="J6" t="n">
-        <v>161.0852316823295</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.7172787283436194</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Cluster 5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>53.1088563975686</v>
-      </c>
-      <c r="C7" t="n">
-        <v>124.496508360371</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.54297993100286</v>
-      </c>
-      <c r="E7" t="n">
-        <v>72.41418554402756</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.156616348923331</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50.2187792684028</v>
-      </c>
-      <c r="H7" t="n">
-        <v>71.90281141980611</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.034365479574673</v>
-      </c>
-      <c r="J7" t="n">
-        <v>183.1723118079966</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.7828381923123574</v>
+        <v>263.5759205690505</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.31296022881471</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5782753716422856</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,11 +1016,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>edge_length_density</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24965768.00814442</v>
+        <v>3936966257076.338</v>
       </c>
     </row>
     <row r="3">
@@ -1123,11 +1029,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>edge_length_avg</t>
+          <t>street_density_km2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3609674.288099007</v>
+        <v>908031129496.5955</v>
       </c>
     </row>
     <row r="4">
@@ -1136,11 +1042,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>street_length_avg</t>
+          <t>edge_density_km2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3487982.833448318</v>
+        <v>18320565.69409111</v>
       </c>
     </row>
     <row r="5">
@@ -1149,11 +1055,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>segment_density_km2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2270774.87682489</v>
+        <v>3998213.515781196</v>
       </c>
     </row>
     <row r="6">
@@ -1162,11 +1068,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>intersection_density_km2</t>
+          <t>edge_length_avg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>950307.5549816652</v>
+        <v>1487884.5825921</v>
       </c>
     </row>
     <row r="7">
@@ -1175,11 +1081,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>intersection_count</t>
+          <t>node_density_km2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>854194.7105677602</v>
+        <v>1437836.918392929</v>
       </c>
     </row>
     <row r="8">
@@ -1188,11 +1094,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>k_avg</t>
+          <t>street_length_avg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6972629002666135</v>
+        <v>1433216.649380506</v>
       </c>
     </row>
     <row r="9">
@@ -1201,11 +1107,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>streets_per_node_avg</t>
+          <t>intersection_density_km2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09027800081297768</v>
+        <v>1239798.239343097</v>
       </c>
     </row>
     <row r="10">
@@ -1214,11 +1120,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>circuity_avg</t>
+          <t>k_avg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.005175773040573637</v>
+        <v>0.1857985364423593</v>
       </c>
     </row>
     <row r="11">
@@ -1227,11 +1133,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>streets_per_node_avg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09578025761312789</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>circuity_avg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.004304748095549858</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>network_connectivity_index</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.001274981771251849</v>
+      <c r="C13" t="n">
+        <v>0.00134736480839638</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
+++ b/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,36 @@
           <t>network_connectivity_index</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>mean_intersection_angle</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>std_intersection_angle</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>orthogonal_proportion</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>angle_coefficient_variation</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>dead_end_ratio</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cv_dead_end_distances</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -540,6 +570,24 @@
       <c r="M2" t="n">
         <v>0.6750821038165211</v>
       </c>
+      <c r="N2" t="n">
+        <v>46.08944319300153</v>
+      </c>
+      <c r="O2" t="n">
+        <v>26.29269125230576</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2795788067227827</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5099235454665424</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.02710192981565956</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.04531670556431861</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -583,91 +631,145 @@
       <c r="M3" t="n">
         <v>0.789517774529254</v>
       </c>
+      <c r="N3" t="n">
+        <v>53.04963647401141</v>
+      </c>
+      <c r="O3" t="n">
+        <v>28.56357987132152</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.3672641824020277</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5245906708543248</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.03749411141251692</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.05048105082209086</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16973.97788981502</v>
+        <v>5847.381738624514</v>
       </c>
       <c r="C4" t="n">
-        <v>10841.03303646398</v>
+        <v>3005.860134697415</v>
       </c>
       <c r="D4" t="n">
-        <v>107.2647922337498</v>
+        <v>28.45615846188232</v>
       </c>
       <c r="E4" t="n">
-        <v>215.1989896673344</v>
+        <v>49.42564923502204</v>
       </c>
       <c r="F4" t="n">
-        <v>3.688307561451929</v>
+        <v>3.617476435793487</v>
       </c>
       <c r="G4" t="n">
-        <v>136.934930504673</v>
+        <v>189.3734257230083</v>
       </c>
       <c r="H4" t="n">
-        <v>2.853543278895978</v>
+        <v>2.097046021065204</v>
       </c>
       <c r="I4" t="n">
-        <v>96.08601994922805</v>
+        <v>14.75495520488539</v>
       </c>
       <c r="J4" t="n">
-        <v>135.8434907881797</v>
+        <v>25.77970135963307</v>
       </c>
       <c r="K4" t="n">
-        <v>134.2805619394438</v>
+        <v>189.298054122866</v>
       </c>
       <c r="L4" t="n">
-        <v>1.109119056522251</v>
+        <v>1.263122803994131</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7114198634848677</v>
+        <v>0.5242615052663011</v>
+      </c>
+      <c r="N4" t="n">
+        <v>45.22349208860403</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25.53795377968681</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2419487577032552</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4997783451049911</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.04346257580834801</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.03975537168903464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5847.381738624514</v>
+        <v>16973.97788981502</v>
       </c>
       <c r="C5" t="n">
-        <v>3005.860134697415</v>
+        <v>10841.03303646398</v>
       </c>
       <c r="D5" t="n">
-        <v>28.45615846188232</v>
+        <v>107.2647922337498</v>
       </c>
       <c r="E5" t="n">
-        <v>49.42564923502204</v>
+        <v>215.1989896673344</v>
       </c>
       <c r="F5" t="n">
-        <v>3.617476435793487</v>
+        <v>3.688307561451929</v>
       </c>
       <c r="G5" t="n">
-        <v>189.3734257230083</v>
+        <v>136.934930504673</v>
       </c>
       <c r="H5" t="n">
-        <v>2.097046021065204</v>
+        <v>2.853543278895978</v>
       </c>
       <c r="I5" t="n">
-        <v>14.75495520488539</v>
+        <v>96.08601994922805</v>
       </c>
       <c r="J5" t="n">
-        <v>25.77970135963307</v>
+        <v>135.8434907881797</v>
       </c>
       <c r="K5" t="n">
-        <v>189.298054122866</v>
+        <v>134.2805619394438</v>
       </c>
       <c r="L5" t="n">
-        <v>1.263122803994131</v>
+        <v>1.109119056522251</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5242615052663011</v>
+        <v>0.7114198634848677</v>
+      </c>
+      <c r="N5" t="n">
+        <v>51.08553557605802</v>
+      </c>
+      <c r="O5" t="n">
+        <v>28.06193037902646</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3474283350946659</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5180634836842781</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.03484963855863978</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.05099369130848909</v>
       </c>
     </row>
   </sheetData>
@@ -681,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,6 +806,9 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -712,13 +817,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.374501992031872</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="C2" t="n">
+        <v>42.42424242424242</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>42.85714285714285</v>
+      <c r="E2" t="n">
+        <v>5.909090909090909</v>
       </c>
     </row>
     <row r="3">
@@ -728,13 +836,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.49800796812749</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>64.64088397790056</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="D3" t="n">
-        <v>1.428571428571429</v>
+        <v>63.69047619047619</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="4">
@@ -744,13 +855,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.28685258964144</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>19.33701657458564</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>31.42857142857143</v>
+        <v>19.64285714285714</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.54545454545455</v>
       </c>
     </row>
     <row r="5">
@@ -760,13 +874,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.8406374501992</v>
+        <v>43.75</v>
       </c>
       <c r="C5" t="n">
-        <v>16.02209944751381</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="D5" t="n">
-        <v>24.28571428571428</v>
+        <v>16.66666666666666</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37.27272727272727</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,6 +966,36 @@
           <t>network_connectivity_index</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>mean_intersection_angle</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>std_intersection_angle</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>orthogonal_proportion</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>angle_coefficient_variation</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>dead_end_ratio</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cv_dead_end_distances</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -857,40 +1004,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13827.58406566504</v>
+        <v>17176.01311093762</v>
       </c>
       <c r="C2" t="n">
-        <v>9112.582314327345</v>
+        <v>10240.48643658325</v>
       </c>
       <c r="D2" t="n">
-        <v>88.0384861490252</v>
+        <v>98.97244202080617</v>
       </c>
       <c r="E2" t="n">
-        <v>160.5098141406104</v>
+        <v>209.8005752739208</v>
       </c>
       <c r="F2" t="n">
-        <v>3.545912287252029</v>
+        <v>3.98709064355272</v>
       </c>
       <c r="G2" t="n">
-        <v>95.48597381306507</v>
+        <v>107.4805363283815</v>
       </c>
       <c r="H2" t="n">
-        <v>2.823904606892357</v>
+        <v>2.775913845199077</v>
       </c>
       <c r="I2" t="n">
-        <v>75.91299470974374</v>
+        <v>82.94125022492968</v>
       </c>
       <c r="J2" t="n">
-        <v>107.1162280436641</v>
+        <v>125.800400889779</v>
       </c>
       <c r="K2" t="n">
-        <v>94.11139102391496</v>
+        <v>106.3646484538929</v>
       </c>
       <c r="L2" t="n">
-        <v>1.073147094175488</v>
+        <v>1.088224352754024</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7019456604835532</v>
+        <v>0.6915680761211647</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12.77308806527542</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.7820533776827432</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.05205188674238292</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.01882596959606175</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.07874996131378403</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01395371534534536</v>
       </c>
     </row>
     <row r="3">
@@ -900,40 +1065,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33922.90540510153</v>
+        <v>5760.979379953937</v>
       </c>
       <c r="C3" t="n">
-        <v>20387.23791664614</v>
+        <v>2877.463896433981</v>
       </c>
       <c r="D3" t="n">
-        <v>218.8201439587225</v>
+        <v>16.04546916286267</v>
       </c>
       <c r="E3" t="n">
-        <v>494.5270560590718</v>
+        <v>25.55736477255857</v>
       </c>
       <c r="F3" t="n">
-        <v>4.522342605885286</v>
+        <v>3.658716720053806</v>
       </c>
       <c r="G3" t="n">
-        <v>70.72934946530074</v>
+        <v>264.4563630961882</v>
       </c>
       <c r="H3" t="n">
-        <v>3.136375422398369</v>
+        <v>2.291379584913191</v>
       </c>
       <c r="I3" t="n">
-        <v>200.3828390041708</v>
+        <v>7.037702098655018</v>
       </c>
       <c r="J3" t="n">
-        <v>295.1319136078761</v>
+        <v>9.724609264639525</v>
       </c>
       <c r="K3" t="n">
-        <v>70.1746197185204</v>
+        <v>261.3455242121543</v>
       </c>
       <c r="L3" t="n">
-        <v>1.032218565617536</v>
+        <v>1.318485563570508</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7777036303509249</v>
+        <v>0.57348973295404</v>
+      </c>
+      <c r="N3" t="n">
+        <v>49.32671573616771</v>
+      </c>
+      <c r="O3" t="n">
+        <v>27.2450409352496</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2871651429873681</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.522664343561143</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.02455403901081373</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.05226487281349985</v>
       </c>
     </row>
     <row r="4">
@@ -943,40 +1126,119 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5793.499975917461</v>
+        <v>33994.6749928935</v>
       </c>
       <c r="C4" t="n">
-        <v>2956.537694706582</v>
+        <v>20462.86761712136</v>
       </c>
       <c r="D4" t="n">
-        <v>15.56784221704557</v>
+        <v>219.7658583462515</v>
       </c>
       <c r="E4" t="n">
-        <v>24.5982816214144</v>
+        <v>496.3493525646467</v>
       </c>
       <c r="F4" t="n">
-        <v>3.65834369140065</v>
+        <v>4.518621081103629</v>
       </c>
       <c r="G4" t="n">
-        <v>266.6998465923409</v>
+        <v>70.75918440746514</v>
       </c>
       <c r="H4" t="n">
-        <v>2.310379399248939</v>
+        <v>3.146675958554165</v>
       </c>
       <c r="I4" t="n">
-        <v>6.925509674840924</v>
+        <v>201.5782759366431</v>
       </c>
       <c r="J4" t="n">
-        <v>9.901177214612176</v>
+        <v>296.6093725625166</v>
       </c>
       <c r="K4" t="n">
-        <v>263.5759205690505</v>
+        <v>70.21445048627467</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31296022881471</v>
+        <v>1.032446260889983</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5782753716422856</v>
+        <v>0.7800979719282953</v>
+      </c>
+      <c r="N4" t="n">
+        <v>55.3923719785888</v>
+      </c>
+      <c r="O4" t="n">
+        <v>31.27957726642705</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.4032891781126154</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5765219999112537</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.02538673274676607</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0369091306573552</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Cluster 3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14093.34459050659</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9386.764257461577</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91.19778477822456</v>
+      </c>
+      <c r="E5" t="n">
+        <v>165.3424331385752</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.5121275369275</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95.16932842362615</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.841336761457211</v>
+      </c>
+      <c r="I5" t="n">
+        <v>79.53373864761615</v>
+      </c>
+      <c r="J5" t="n">
+        <v>111.3068816469533</v>
+      </c>
+      <c r="K5" t="n">
+        <v>93.74338341093269</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.069967768520397</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7060452026232412</v>
+      </c>
+      <c r="N5" t="n">
+        <v>53.76696261880138</v>
+      </c>
+      <c r="O5" t="n">
+        <v>30.85624682473041</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3593366633123227</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5771412741785567</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.03443321106191927</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.06290789070222731</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,7 +1282,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3936966257076.338</v>
+        <v>2973901140196.477</v>
       </c>
     </row>
     <row r="3">
@@ -1033,7 +1295,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>908031129496.5955</v>
+        <v>696533112264.7</v>
       </c>
     </row>
     <row r="4">
@@ -1046,7 +1308,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18320565.69409111</v>
+        <v>13793700.04131219</v>
       </c>
     </row>
     <row r="5">
@@ -1059,7 +1321,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3998213.515781196</v>
+        <v>3044890.790825484</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1334,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1487884.5825921</v>
+        <v>1124823.559156398</v>
       </c>
     </row>
     <row r="7">
@@ -1085,7 +1347,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1437836.918392929</v>
+        <v>1084912.863873229</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1360,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1433216.649380506</v>
+        <v>1083000.993322513</v>
       </c>
     </row>
     <row r="9">
@@ -1111,7 +1373,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1239798.239343097</v>
+        <v>946491.9664598726</v>
       </c>
     </row>
     <row r="10">
@@ -1120,11 +1382,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>k_avg</t>
+          <t>mean_intersection_angle</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1857985364423593</v>
+        <v>13031.42871994343</v>
       </c>
     </row>
     <row r="11">
@@ -1133,11 +1395,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>streets_per_node_avg</t>
+          <t>std_intersection_angle</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.09578025761312789</v>
+        <v>5698.846067749067</v>
       </c>
     </row>
     <row r="12">
@@ -1146,11 +1408,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>circuity_avg</t>
+          <t>k_avg</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.004304748095549858</v>
+        <v>0.150338503015856</v>
       </c>
     </row>
     <row r="13">
@@ -1159,11 +1421,89 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>streets_per_node_avg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.08038369114538757</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>angle_coefficient_variation</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03079327747824032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>orthogonal_proportion</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01457858546682362</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>circuity_avg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00360145228706067</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>network_connectivity_index</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.00134736480839638</v>
+      <c r="C17" t="n">
+        <v>0.001132876289215796</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>dead_end_ratio</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.685725233172188e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cv_dead_end_distances</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.657164720313393e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
+++ b/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
@@ -531,62 +531,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19107.82969719795</v>
+        <v>-0.2320036946803249</v>
       </c>
       <c r="C2" t="n">
-        <v>10655.26898236305</v>
+        <v>-0.1946369814618829</v>
       </c>
       <c r="D2" t="n">
-        <v>108.1646670925345</v>
+        <v>-0.2025393098592274</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7390758969681</v>
+        <v>-0.218002813803558</v>
       </c>
       <c r="F2" t="n">
-        <v>4.189019187276679</v>
+        <v>-0.2479751465922633</v>
       </c>
       <c r="G2" t="n">
-        <v>99.94133294978602</v>
+        <v>0.3188717650957506</v>
       </c>
       <c r="H2" t="n">
-        <v>2.713559336714237</v>
+        <v>-0.02798447016804901</v>
       </c>
       <c r="I2" t="n">
-        <v>89.21881788994803</v>
+        <v>-0.1807797241083393</v>
       </c>
       <c r="J2" t="n">
-        <v>131.6000784161852</v>
+        <v>-0.2072160957575954</v>
       </c>
       <c r="K2" t="n">
-        <v>98.36255104953904</v>
+        <v>0.3060281813180941</v>
       </c>
       <c r="L2" t="n">
-        <v>1.121342217018086</v>
+        <v>0.1248504477605558</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6750821038165211</v>
+        <v>-0.006029504861220496</v>
       </c>
       <c r="N2" t="n">
-        <v>46.08944319300153</v>
+        <v>0.07063344512514706</v>
       </c>
       <c r="O2" t="n">
-        <v>26.29269125230576</v>
+        <v>0.0493382502559061</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2795788067227827</v>
+        <v>0.09943685008778219</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5099235454665424</v>
+        <v>0.007572314622901567</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02710192981565956</v>
+        <v>0.006589775739277551</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04531670556431861</v>
+        <v>0.01951230060692519</v>
       </c>
     </row>
     <row r="3">
@@ -596,58 +596,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26290.78357942621</v>
+        <v>0.4936255745362307</v>
       </c>
       <c r="C3" t="n">
-        <v>17047.88349533022</v>
+        <v>0.6225730122874076</v>
       </c>
       <c r="D3" t="n">
-        <v>175.620532661817</v>
+        <v>0.574269295116188</v>
       </c>
       <c r="E3" t="n">
-        <v>371.2872779466871</v>
+        <v>0.509216129622318</v>
       </c>
       <c r="F3" t="n">
-        <v>3.926087741257137</v>
+        <v>0.01368751874380866</v>
       </c>
       <c r="G3" t="n">
-        <v>80.26207496284256</v>
+        <v>-0.3630487017108262</v>
       </c>
       <c r="H3" t="n">
-        <v>3.188534318151369</v>
+        <v>0.7930472911815913</v>
       </c>
       <c r="I3" t="n">
-        <v>163.7612928806655</v>
+        <v>0.6302039300861708</v>
       </c>
       <c r="J3" t="n">
-        <v>237.4213597517306</v>
+        <v>0.617979508517469</v>
       </c>
       <c r="K3" t="n">
-        <v>79.76552134480792</v>
+        <v>-0.3568100145890953</v>
       </c>
       <c r="L3" t="n">
-        <v>1.012702445761716</v>
+        <v>-0.5714112812578992</v>
       </c>
       <c r="M3" t="n">
-        <v>0.789517774529254</v>
+        <v>0.78397697347239</v>
       </c>
       <c r="N3" t="n">
-        <v>53.04963647401141</v>
+        <v>0.179176478374798</v>
       </c>
       <c r="O3" t="n">
-        <v>28.56357987132152</v>
+        <v>0.09322466770612688</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3672641824020277</v>
+        <v>0.1882559031180202</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5245906708543248</v>
+        <v>0.03705405203249503</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03749411141251692</v>
+        <v>0.04107504050536845</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05048105082209086</v>
+        <v>0.01602304197450809</v>
       </c>
     </row>
     <row r="4">
@@ -657,119 +657,119 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5847.381738624514</v>
+        <v>-1.098586523928215</v>
       </c>
       <c r="C4" t="n">
-        <v>3005.860134697415</v>
+        <v>-1.226236121881136</v>
       </c>
       <c r="D4" t="n">
-        <v>28.45615846188232</v>
+        <v>-1.098136731187223</v>
       </c>
       <c r="E4" t="n">
-        <v>49.42564923502204</v>
+        <v>-0.9903446391018693</v>
       </c>
       <c r="F4" t="n">
-        <v>3.617476435793487</v>
+        <v>-0.3259205041225904</v>
       </c>
       <c r="G4" t="n">
-        <v>189.3734257230083</v>
+        <v>0.9498419676035061</v>
       </c>
       <c r="H4" t="n">
-        <v>2.097046021065204</v>
+        <v>-1.882088620038919</v>
       </c>
       <c r="I4" t="n">
-        <v>14.75495520488539</v>
+        <v>-1.155406958382225</v>
       </c>
       <c r="J4" t="n">
-        <v>25.77970135963307</v>
+        <v>-1.10134939618038</v>
       </c>
       <c r="K4" t="n">
-        <v>189.298054122866</v>
+        <v>0.9749755922420773</v>
       </c>
       <c r="L4" t="n">
-        <v>1.263122803994131</v>
+        <v>1.236971218697083</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5242615052663011</v>
+        <v>-1.899246794410965</v>
       </c>
       <c r="N4" t="n">
-        <v>45.22349208860403</v>
+        <v>-0.2533234258444829</v>
       </c>
       <c r="O4" t="n">
-        <v>25.53795377968681</v>
+        <v>-0.1714698884435663</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2419487577032552</v>
+        <v>-0.3728694765725213</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4997783451049911</v>
+        <v>-0.07501726647052678</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04346257580834801</v>
+        <v>0.1189068377331059</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03975537168903464</v>
+        <v>-0.05698068967863438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16973.97788981502</v>
+        <v>-0.06581096949187897</v>
       </c>
       <c r="C5" t="n">
-        <v>10841.03303646398</v>
+        <v>-0.219095157552433</v>
       </c>
       <c r="D5" t="n">
-        <v>107.2647922337498</v>
+        <v>-0.1923129480448802</v>
       </c>
       <c r="E5" t="n">
-        <v>215.1989896673344</v>
+        <v>-0.1316241234638403</v>
       </c>
       <c r="F5" t="n">
-        <v>3.688307561451929</v>
+        <v>0.3030276270005265</v>
       </c>
       <c r="G5" t="n">
-        <v>136.934930504673</v>
+        <v>-0.1262565255523756</v>
       </c>
       <c r="H5" t="n">
-        <v>2.853543278895978</v>
+        <v>-0.3710720430942019</v>
       </c>
       <c r="I5" t="n">
-        <v>96.08601994922805</v>
+        <v>-0.2630725377002278</v>
       </c>
       <c r="J5" t="n">
-        <v>135.8434907881797</v>
+        <v>-0.2416886169103358</v>
       </c>
       <c r="K5" t="n">
-        <v>134.2805619394438</v>
+        <v>-0.130692204086551</v>
       </c>
       <c r="L5" t="n">
-        <v>1.109119056522251</v>
+        <v>0.2131186288734309</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7114198634848677</v>
+        <v>-0.3736073973071298</v>
       </c>
       <c r="N5" t="n">
-        <v>51.08553557605802</v>
+        <v>-0.205467961995792</v>
       </c>
       <c r="O5" t="n">
-        <v>28.06193037902646</v>
+        <v>-0.1054422649785399</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3474283350946659</v>
+        <v>-0.2043732551806878</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5180634836842781</v>
+        <v>-0.02919383208220008</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03484963855863978</v>
+        <v>-0.09444426850909023</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05099369130848909</v>
+        <v>-0.01912778350568277</v>
       </c>
     </row>
   </sheetData>
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>7.272727272727272</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>10.41666666666667</v>
       </c>
-      <c r="C2" t="n">
-        <v>42.42424242424242</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>5.909090909090909</v>
+        <v>40.98360655737705</v>
       </c>
     </row>
     <row r="3">
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>25.45454545454545</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64.16184971098265</v>
+      </c>
+      <c r="D3" t="n">
         <v>29.16666666666667</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.515151515151515</v>
-      </c>
-      <c r="D3" t="n">
-        <v>63.69047619047619</v>
-      </c>
       <c r="E3" t="n">
-        <v>27.27272727272727</v>
+        <v>1.639344262295082</v>
       </c>
     </row>
     <row r="4">
@@ -855,16 +855,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19.07514450867052</v>
+      </c>
+      <c r="D4" t="n">
         <v>16.66666666666666</v>
       </c>
-      <c r="C4" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.64285714285714</v>
-      </c>
       <c r="E4" t="n">
-        <v>29.54545454545455</v>
+        <v>34.42622950819672</v>
       </c>
     </row>
     <row r="5">
@@ -874,16 +874,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>37.27272727272727</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.76300578034682</v>
+      </c>
+      <c r="D5" t="n">
         <v>43.75</v>
       </c>
-      <c r="C5" t="n">
-        <v>22.72727272727273</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.66666666666666</v>
-      </c>
       <c r="E5" t="n">
-        <v>37.27272727272727</v>
+        <v>22.95081967213115</v>
       </c>
     </row>
   </sheetData>
@@ -1004,58 +1004,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17176.01311093762</v>
+        <v>-0.4880675683383449</v>
       </c>
       <c r="C2" t="n">
-        <v>10240.48643658325</v>
+        <v>-0.4262580429316252</v>
       </c>
       <c r="D2" t="n">
-        <v>98.97244202080617</v>
+        <v>-0.4201405876260634</v>
       </c>
       <c r="E2" t="n">
-        <v>209.8005752739208</v>
+        <v>-0.4810702315761773</v>
       </c>
       <c r="F2" t="n">
-        <v>3.98709064355272</v>
+        <v>-0.4457920036319646</v>
       </c>
       <c r="G2" t="n">
-        <v>107.4805363283815</v>
+        <v>-0.1819962263556535</v>
       </c>
       <c r="H2" t="n">
-        <v>2.775913845199077</v>
+        <v>-0.1046915367389788</v>
       </c>
       <c r="I2" t="n">
-        <v>82.94125022492968</v>
+        <v>-0.4177426669035913</v>
       </c>
       <c r="J2" t="n">
-        <v>125.800400889779</v>
+        <v>-0.4442333419549467</v>
       </c>
       <c r="K2" t="n">
-        <v>106.3646484538929</v>
+        <v>-0.1853251842888091</v>
       </c>
       <c r="L2" t="n">
-        <v>1.088224352754024</v>
+        <v>-0.1260789295362477</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6915680761211647</v>
+        <v>-0.106863794240504</v>
       </c>
       <c r="N2" t="n">
-        <v>12.77308806527542</v>
+        <v>0.201503199390451</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.7820533776827432</v>
+        <v>0.3067196230397263</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05205188674238292</v>
+        <v>0.1276465667312897</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01882596959606175</v>
+        <v>0.2975769264313435</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07874996131378403</v>
+        <v>-0.002492574490609193</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01395371534534536</v>
+        <v>0.09758472849839021</v>
       </c>
     </row>
     <row r="3">
@@ -1065,58 +1065,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5760.979379953937</v>
+        <v>1.068633579560528</v>
       </c>
       <c r="C3" t="n">
-        <v>2877.463896433981</v>
+        <v>1.049341467903645</v>
       </c>
       <c r="D3" t="n">
-        <v>16.04546916286267</v>
+        <v>1.051625729689458</v>
       </c>
       <c r="E3" t="n">
-        <v>25.55736477255857</v>
+        <v>1.066422092719768</v>
       </c>
       <c r="F3" t="n">
-        <v>3.658716720053806</v>
+        <v>0.6497939068780079</v>
       </c>
       <c r="G3" t="n">
-        <v>264.4563630961882</v>
+        <v>-0.4764499861918666</v>
       </c>
       <c r="H3" t="n">
-        <v>2.291379584913191</v>
+        <v>0.6840173509556248</v>
       </c>
       <c r="I3" t="n">
-        <v>7.037702098655018</v>
+        <v>1.059435606626572</v>
       </c>
       <c r="J3" t="n">
-        <v>9.724609264639525</v>
+        <v>1.074519546160737</v>
       </c>
       <c r="K3" t="n">
-        <v>261.3455242121543</v>
+        <v>-0.4720241504073797</v>
       </c>
       <c r="L3" t="n">
-        <v>1.318485563570508</v>
+        <v>-0.4263556808131268</v>
       </c>
       <c r="M3" t="n">
-        <v>0.57348973295404</v>
+        <v>0.6821518853775541</v>
       </c>
       <c r="N3" t="n">
-        <v>49.32671573616771</v>
+        <v>0.3177371774953215</v>
       </c>
       <c r="O3" t="n">
-        <v>27.2450409352496</v>
+        <v>0.3158270360421091</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2871651429873681</v>
+        <v>0.3659025044356914</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.522664343561143</v>
+        <v>0.2491150786408431</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02455403901081373</v>
+        <v>-0.1089491612970147</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05226487281349985</v>
+        <v>-0.08448223037524816</v>
       </c>
     </row>
     <row r="4">
@@ -1126,58 +1126,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33994.6749928935</v>
+        <v>-0.2214109271654162</v>
       </c>
       <c r="C4" t="n">
-        <v>20462.86761712136</v>
+        <v>-0.2685934085762878</v>
       </c>
       <c r="D4" t="n">
-        <v>219.7658583462515</v>
+        <v>-0.2692656675012043</v>
       </c>
       <c r="E4" t="n">
-        <v>496.3493525646467</v>
+        <v>-0.2324290831372303</v>
       </c>
       <c r="F4" t="n">
-        <v>4.518621081103629</v>
+        <v>0.02434964427877565</v>
       </c>
       <c r="G4" t="n">
-        <v>70.75918440746514</v>
+        <v>-0.01360686862212759</v>
       </c>
       <c r="H4" t="n">
-        <v>3.146675958554165</v>
+        <v>-0.2564854671304244</v>
       </c>
       <c r="I4" t="n">
-        <v>201.5782759366431</v>
+        <v>-0.3172490465795689</v>
       </c>
       <c r="J4" t="n">
-        <v>296.6093725625166</v>
+        <v>-0.2706197201857476</v>
       </c>
       <c r="K4" t="n">
-        <v>70.21445048627467</v>
+        <v>-0.01106055199844391</v>
       </c>
       <c r="L4" t="n">
-        <v>1.032446260889983</v>
+        <v>-0.09420190544692073</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7800979719282953</v>
+        <v>-0.2463094049872861</v>
       </c>
       <c r="N4" t="n">
-        <v>55.3923719785888</v>
+        <v>-2.031120376170032</v>
       </c>
       <c r="O4" t="n">
-        <v>31.27957726642705</v>
+        <v>-2.481280505093828</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4032891781126154</v>
+        <v>-1.694536890352163</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5765219999112537</v>
+        <v>-2.256926537856</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02538673274676607</v>
+        <v>0.5520851771205105</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0369091306573552</v>
+        <v>-0.2127741634248295</v>
       </c>
     </row>
     <row r="5">
@@ -1187,58 +1187,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14093.34459050659</v>
+        <v>-1.096246225009761</v>
       </c>
       <c r="C5" t="n">
-        <v>9386.764257461577</v>
+        <v>-1.227324932634617</v>
       </c>
       <c r="D5" t="n">
-        <v>91.19778477822456</v>
+        <v>-1.255337211778427</v>
       </c>
       <c r="E5" t="n">
-        <v>165.3424331385752</v>
+        <v>-1.10654057546187</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5121275369275</v>
+        <v>-0.2542440658400518</v>
       </c>
       <c r="G5" t="n">
-        <v>95.16932842362615</v>
+        <v>2.018330280381951</v>
       </c>
       <c r="H5" t="n">
-        <v>2.841336761457211</v>
+        <v>-1.360517396893308</v>
       </c>
       <c r="I5" t="n">
-        <v>79.53373864761615</v>
+        <v>-1.248377360521106</v>
       </c>
       <c r="J5" t="n">
-        <v>111.3068816469533</v>
+        <v>-1.23230819158693</v>
       </c>
       <c r="K5" t="n">
-        <v>93.74338341093269</v>
+        <v>2.015780738687539</v>
       </c>
       <c r="L5" t="n">
-        <v>1.069967768520397</v>
+        <v>1.738009651477014</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7060452026232412</v>
+        <v>-1.355399836033162</v>
       </c>
       <c r="N5" t="n">
-        <v>53.76696261880138</v>
+        <v>-0.02959766420373741</v>
       </c>
       <c r="O5" t="n">
-        <v>30.85624682473041</v>
+        <v>-0.04942508294296225</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3593366633123227</v>
+        <v>-0.1646820854320514</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5771412741785567</v>
+        <v>-0.003792763978251657</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03443321106191927</v>
+        <v>-0.1164511017945349</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06290789070222731</v>
+        <v>0.05508107261744141</v>
       </c>
     </row>
   </sheetData>
@@ -1278,11 +1278,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>edge_length_density</t>
+          <t>std_intersection_angle</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2973901140196.477</v>
+        <v>3.805990528243982</v>
       </c>
     </row>
     <row r="3">
@@ -1291,11 +1291,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>street_density_km2</t>
+          <t>angle_coefficient_variation</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>696533112264.7</v>
+        <v>2.880119467541828</v>
       </c>
     </row>
     <row r="4">
@@ -1304,11 +1304,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>edge_density_km2</t>
+          <t>edge_length_avg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13793700.04131219</v>
+        <v>2.420469437438812</v>
       </c>
     </row>
     <row r="5">
@@ -1317,11 +1317,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>segment_density_km2</t>
+          <t>street_length_avg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3044890.790825484</v>
+        <v>2.404957560315562</v>
       </c>
     </row>
     <row r="6">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>edge_length_avg</t>
+          <t>mean_intersection_angle</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1124823.559156398</v>
+        <v>2.157336471511239</v>
       </c>
     </row>
     <row r="7">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>node_density_km2</t>
+          <t>segment_density_km2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1084912.863873229</v>
+        <v>1.587892267471537</v>
       </c>
     </row>
     <row r="8">
@@ -1356,11 +1356,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>street_length_avg</t>
+          <t>circuity_avg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1083000.993322513</v>
+        <v>1.58510151008198</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>946491.9664598726</v>
+        <v>1.582347615960378</v>
       </c>
     </row>
     <row r="10">
@@ -1382,11 +1382,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mean_intersection_angle</t>
+          <t>node_density_km2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13031.42871994343</v>
+        <v>1.575307038032506</v>
       </c>
     </row>
     <row r="11">
@@ -1395,11 +1395,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>std_intersection_angle</t>
+          <t>street_density_km2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5698.846067749067</v>
+        <v>1.520142761012978</v>
       </c>
     </row>
     <row r="12">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>k_avg</t>
+          <t>edge_density_km2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.150338503015856</v>
+        <v>1.360902086953022</v>
       </c>
     </row>
     <row r="13">
@@ -1421,11 +1421,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>streets_per_node_avg</t>
+          <t>edge_length_density</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.08038369114538757</v>
+        <v>1.350419779251489</v>
       </c>
     </row>
     <row r="14">
@@ -1434,11 +1434,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>angle_coefficient_variation</t>
+          <t>orthogonal_proportion</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.03079327747824032</v>
+        <v>1.330266125202751</v>
       </c>
     </row>
     <row r="15">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>orthogonal_proportion</t>
+          <t>streets_per_node_avg</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01457858546682362</v>
+        <v>1.086894617132818</v>
       </c>
     </row>
     <row r="16">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>circuity_avg</t>
+          <t>network_connectivity_index</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.00360145228706067</v>
+        <v>1.075390768295653</v>
       </c>
     </row>
     <row r="17">
@@ -1473,11 +1473,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>network_connectivity_index</t>
+          <t>k_avg</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001132876289215796</v>
+        <v>0.1879006463126635</v>
       </c>
     </row>
     <row r="18">
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.685725233172188e-05</v>
+        <v>0.05080204949334542</v>
       </c>
     </row>
     <row r="19">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.657164720313393e-05</v>
+        <v>0.004635224466571262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
+++ b/Code/Resultados/urbano_pattern_cluster/urban_pattern_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,241 +535,119 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2320036946803249</v>
+        <v>0.2487153115872622</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1946369814618829</v>
+        <v>0.2894051505480808</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2025393098592274</v>
+        <v>0.2094492443000819</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.218002813803558</v>
+        <v>0.2166958821304533</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2479751465922633</v>
+        <v>0.3476145202894675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3188717650957506</v>
+        <v>0.07269576454021988</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02798447016804901</v>
+        <v>0.6418739130811988</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1807797241083393</v>
+        <v>0.2587509759077248</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.2072160957575954</v>
+        <v>0.245098649523526</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3060281813180941</v>
+        <v>0.06616653025916863</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1248504477605558</v>
+        <v>0.188300099116619</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.006029504861220496</v>
+        <v>0.6487155326883393</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07063344512514706</v>
+        <v>-0.3287336378584974</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0493382502559061</v>
+        <v>0.5322104995714753</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09943685008778219</v>
+        <v>0.108729524698157</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.007572314622901567</v>
+        <v>0.5216312838769175</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006589775739277551</v>
+        <v>0.1930664053623027</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01951230060692519</v>
+        <v>0.366600765201852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4936255745362307</v>
+        <v>-0.4145255193121037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6225730122874076</v>
+        <v>-0.4823419175801353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.574269295116188</v>
+        <v>-0.3490820738334698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.509216129622318</v>
+        <v>-0.3611598035507547</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01368751874380866</v>
+        <v>-0.5793575338157705</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3630487017108262</v>
+        <v>-0.121159607567033</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7930472911815913</v>
+        <v>-1.069789855135338</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6302039300861708</v>
+        <v>-0.4312516265128744</v>
       </c>
       <c r="J3" t="n">
-        <v>0.617979508517469</v>
+        <v>-0.4084977492058767</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3568100145890953</v>
+        <v>-0.1102775504319471</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.5714112812578992</v>
+        <v>-0.3138334985276983</v>
       </c>
       <c r="M3" t="n">
-        <v>0.78397697347239</v>
+        <v>-1.081192554480569</v>
       </c>
       <c r="N3" t="n">
-        <v>0.179176478374798</v>
+        <v>0.5478893964308342</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09322466770612688</v>
+        <v>-0.8870174992857839</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1882559031180202</v>
+        <v>-0.1812158744969257</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03705405203249503</v>
+        <v>-0.8693854731281973</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04107504050536845</v>
+        <v>-0.3217773422705041</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01602304197450809</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>cul_de_sac</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-1.098586523928215</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-1.226236121881136</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.098136731187223</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.9903446391018693</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.3259205041225904</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9498419676035061</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-1.882088620038919</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-1.155406958382225</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-1.10134939618038</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9749755922420773</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.236971218697083</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-1.899246794410965</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-0.2533234258444829</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-0.1714698884435663</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-0.3728694765725213</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.07501726647052678</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1189068377331059</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-0.05698068967863438</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>organico</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.06581096949187897</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.219095157552433</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.1923129480448802</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.1316241234638403</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3030276270005265</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.1262565255523756</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.3710720430942019</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.2630725377002278</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-0.2416886169103358</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.130692204086551</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.2131186288734309</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.3736073973071298</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.205467961995792</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-0.1054422649785399</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.2043732551806878</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.02919383208220008</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.09444426850909023</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-0.01912778350568277</v>
+        <v>-0.6110012753364193</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,6 +687,18 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -817,73 +707,59 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.272727272727272</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>10.41666666666667</v>
-      </c>
       <c r="E2" t="n">
-        <v>40.98360655737705</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>64.16184971098265</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>29.16666666666667</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>1.639344262295082</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>hibrido</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19.07514450867052</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34.42622950819672</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>organico</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>37.27272727272727</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.76300578034682</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>22.95081967213115</v>
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,58 +880,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4880675683383449</v>
+        <v>1.5534426016692</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4262580429316252</v>
+        <v>1.49209240223617</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4201405876260634</v>
+        <v>1.345157675024573</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4810702315761773</v>
+        <v>1.408418551774101</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4457920036319646</v>
+        <v>1.06270691049644</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1819962263556535</v>
+        <v>-0.9371904440787482</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1046915367389788</v>
+        <v>0.9148243325565321</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4177426669035913</v>
+        <v>1.304100432582489</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4442333419549467</v>
+        <v>1.391787220147616</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1853251842888091</v>
+        <v>-0.9801400666321468</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.1260789295362477</v>
+        <v>2.092573127978591</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.106863794240504</v>
+        <v>0.8231444033030527</v>
       </c>
       <c r="N2" t="n">
-        <v>0.201503199390451</v>
+        <v>0.05996803087205897</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3067196230397263</v>
+        <v>0.2266441850327268</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1276465667312897</v>
+        <v>0.3109547730366985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2975769264313435</v>
+        <v>0.1145680617330286</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.002492574490609193</v>
+        <v>-0.4265540068732119</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09758472849839021</v>
+        <v>-0.05452873169110668</v>
       </c>
     </row>
     <row r="3">
@@ -1065,58 +941,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.068633579560528</v>
+        <v>0.192262766528783</v>
       </c>
       <c r="C3" t="n">
-        <v>1.049341467903645</v>
+        <v>0.1594705640921024</v>
       </c>
       <c r="D3" t="n">
-        <v>1.051625729689458</v>
+        <v>-0.01253462189437104</v>
       </c>
       <c r="E3" t="n">
-        <v>1.066422092719768</v>
+        <v>-0.02407107609850951</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6497939068780079</v>
+        <v>-0.4298475340018128</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4764499861918666</v>
+        <v>0.3364666256556129</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6840173509556248</v>
+        <v>-0.2844992698476805</v>
       </c>
       <c r="I3" t="n">
-        <v>1.059435606626572</v>
+        <v>-0.05029274931915054</v>
       </c>
       <c r="J3" t="n">
-        <v>1.074519546160737</v>
+        <v>-0.03410278333453756</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.4720241504073797</v>
+        <v>0.3432526660120999</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4263556808131268</v>
+        <v>0.0954088961364338</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6821518853775541</v>
+        <v>-0.3177333647361865</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3177371774953215</v>
+        <v>0.02791102348374841</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3158270360421091</v>
+        <v>-0.7890792965163349</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3659025044356914</v>
+        <v>-0.7138831361773824</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2491150786408431</v>
+        <v>-0.5533488920757361</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1089491612970147</v>
+        <v>-0.06628749185853071</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.08448223037524816</v>
+        <v>0.7803176325169081</v>
       </c>
     </row>
     <row r="4">
@@ -1126,58 +1002,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2214109271654162</v>
+        <v>-0.9124056535306486</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2685934085762878</v>
+        <v>-0.9221888136867272</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2692656675012043</v>
+        <v>-1.281317011426556</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2324290831372303</v>
+        <v>-1.266784811845729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02434964427877565</v>
+        <v>0.6632305311306906</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01360686862212759</v>
+        <v>2.211942648020794</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2564854671304244</v>
+        <v>0.2733022667555487</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3172490465795689</v>
+        <v>-1.178187023916198</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2706197201857476</v>
+        <v>-1.235229544575326</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01106055199844391</v>
+        <v>2.193732211714064</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.09420190544692073</v>
+        <v>-0.9450053726092629</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2463094049872861</v>
+        <v>0.3455408185492281</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.031120376170032</v>
+        <v>-1.187698609027235</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.481280505093828</v>
+        <v>0.3104306460636287</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.694536890352163</v>
+        <v>-0.8303698693860143</v>
       </c>
       <c r="Q4" t="n">
-        <v>-2.256926537856</v>
+        <v>0.810859435380421</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5520851771205105</v>
+        <v>-0.6283638596766699</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.2127741634248295</v>
+        <v>0.9559595270746628</v>
       </c>
     </row>
     <row r="5">
@@ -1187,58 +1063,302 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.096246225009761</v>
+        <v>-0.8504247444379829</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.227324932634617</v>
+        <v>-0.831212348738341</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.255337211778427</v>
+        <v>-0.8319228521685411</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.10654057546187</v>
+        <v>-0.7724980454034917</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2542440658400518</v>
+        <v>1.765288935799965</v>
       </c>
       <c r="G5" t="n">
-        <v>2.018330280381951</v>
+        <v>1.029533876083288</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.360517396893308</v>
+        <v>0.8732878291434978</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.248377360521106</v>
+        <v>-0.6960287719720679</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.23230819158693</v>
+        <v>-0.7404635333002096</v>
       </c>
       <c r="K5" t="n">
-        <v>2.015780738687539</v>
+        <v>0.9858427482519853</v>
       </c>
       <c r="L5" t="n">
-        <v>1.738009651477014</v>
+        <v>-0.3432360571263566</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.355399836033162</v>
+        <v>0.9750278709110588</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.02959766420373741</v>
+        <v>-0.9715773958218015</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04942508294296225</v>
+        <v>1.774195294437066</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1646820854320514</v>
+        <v>0.8153910042260367</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.003792763978251657</v>
+        <v>1.7012455582138</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1164511017945349</v>
+        <v>-0.7762636785249755</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05508107261744141</v>
+        <v>-1.013880974826238</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Cluster 4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1072991613160067</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2744124889041175</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3214461384963692</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2742777453094934</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.79443956221672</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.497168835956527</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.656810656052086</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4074605174934301</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3486557296480711</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.4426791265354803</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2722387666569204</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6612308230814898</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6186472671078335</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7018869997906689</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.97936125102976</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1633938915231851</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.506935925874142</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.026106609413874</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cluster 5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.34109541179976</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.237691924411026</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.169567118739694</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.194765155179021</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.436239334915354</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.02142357693143705</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.042925114776129</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.200967510518406</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1.15937386872341</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.07884952382241778</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5569279065160438</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1.061707181693223</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.792043043550382</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3982639642576835</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.43417918398506</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-1.665737506630448</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.02486196294706185</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.8089699392964431</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Cluster 6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.5074099995353664</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.5919805413909355</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.3913404936759817</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.4068848854721933</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.5063089264843506</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1145765061916536</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1.216941365773597</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.4870988591647014</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.4682092029905495</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1175873603177991</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.6186009921976201</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.206961583718958</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07981194458281092</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.9671285780831437</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.6751222246357754</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.6920461534573877</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.4957251640993794</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.984779862948713</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Cluster 7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.085718726791074</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.178806126581287</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.384488047848486</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.340906233848848</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02067454356818588</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.931962115385606</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.601040485153737</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.447363862843161</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.369789742273591</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1.958037402470299</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3779418619162334</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.578406597637163</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.421401087621788</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.918132561554763</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.9730850641087707</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.324694338366752</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.177028547750812</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53578316067285</v>
       </c>
     </row>
   </sheetData>
@@ -1278,11 +1398,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>std_intersection_angle</t>
+          <t>mean_intersection_angle</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.805990528243982</v>
+        <v>6.617185014041681</v>
       </c>
     </row>
     <row r="3">
@@ -1291,11 +1411,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>angle_coefficient_variation</t>
+          <t>edge_length_avg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.880119467541828</v>
+        <v>5.665076456845088</v>
       </c>
     </row>
     <row r="4">
@@ -1304,11 +1424,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>edge_length_avg</t>
+          <t>street_length_avg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.420469437438812</v>
+        <v>5.662718490610535</v>
       </c>
     </row>
     <row r="5">
@@ -1317,11 +1437,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>street_length_avg</t>
+          <t>node_density_km2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.404957560315562</v>
+        <v>5.24073635986475</v>
       </c>
     </row>
     <row r="6">
@@ -1330,11 +1450,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mean_intersection_angle</t>
+          <t>intersection_density_km2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.157336471511239</v>
+        <v>5.186868260858799</v>
       </c>
     </row>
     <row r="7">
@@ -1343,11 +1463,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>segment_density_km2</t>
+          <t>edge_density_km2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.587892267471537</v>
+        <v>5.103861163586378</v>
       </c>
     </row>
     <row r="8">
@@ -1356,11 +1476,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>circuity_avg</t>
+          <t>segment_density_km2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.58510151008198</v>
+        <v>5.085418640464611</v>
       </c>
     </row>
     <row r="9">
@@ -1369,11 +1489,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>intersection_density_km2</t>
+          <t>street_density_km2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.582347615960378</v>
+        <v>4.468743145381695</v>
       </c>
     </row>
     <row r="10">
@@ -1382,11 +1502,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>node_density_km2</t>
+          <t>edge_length_density</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.575307038032506</v>
+        <v>4.459225392831484</v>
       </c>
     </row>
     <row r="11">
@@ -1395,11 +1515,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>street_density_km2</t>
+          <t>orthogonal_proportion</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.520142761012978</v>
+        <v>4.267945737896319</v>
       </c>
     </row>
     <row r="12">
@@ -1408,11 +1528,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>edge_density_km2</t>
+          <t>angle_coefficient_variation</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.360902086953022</v>
+        <v>3.672150424221756</v>
       </c>
     </row>
     <row r="13">
@@ -1421,11 +1541,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>edge_length_density</t>
+          <t>k_avg</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.350419779251489</v>
+        <v>3.123909088672939</v>
       </c>
     </row>
     <row r="14">
@@ -1434,11 +1554,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>orthogonal_proportion</t>
+          <t>dead_end_ratio</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.330266125202751</v>
+        <v>3.036013390241874</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1571,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.086894617132818</v>
+        <v>2.439229394087953</v>
       </c>
     </row>
     <row r="16">
@@ -1464,7 +1584,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.075390768295653</v>
+        <v>2.422414883385502</v>
       </c>
     </row>
     <row r="17">
@@ -1473,11 +1593,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>k_avg</t>
+          <t>circuity_avg</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1879006463126635</v>
+        <v>2.393683428092095</v>
       </c>
     </row>
     <row r="18">
@@ -1486,11 +1606,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dead_end_ratio</t>
+          <t>cv_dead_end_distances</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.05080204949334542</v>
+        <v>2.3366607336973</v>
       </c>
     </row>
     <row r="19">
@@ -1499,11 +1619,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cv_dead_end_distances</t>
+          <t>std_intersection_angle</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.004635224466571262</v>
+        <v>2.039914791897856</v>
       </c>
     </row>
   </sheetData>
